--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPS_1.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPS_1.XLSX
@@ -142,7 +142,7 @@
     <t>FREDERICO VIGORITO</t>
   </si>
   <si>
-    <t> </t>
+    <t>ADILSON GERARDO BARROS AMARAL</t>
   </si>
   <si>
     <t> </t>
@@ -160,7 +160,7 @@
     <t>3464</t>
   </si>
   <si>
-    <t> </t>
+    <t>3756</t>
   </si>
   <si>
     <t> </t>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>ADILSON GERARDO BARROS AMARAL</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>ADILSON GERARDO BARROS AMARAL</v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>ADILSON GERARDO BARROS AMARAL</v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>ADILSON GERARDO BARROS AMARAL</v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>3756</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>3756</v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>3756</v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>3756</v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>ADILSON GERARDO BARROS AMARAL</v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>ADILSON GERARDO BARROS AMARAL</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>3756</v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
@@ -6978,7 +6978,7 @@
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>3756</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
